--- a/outputs-GTDB-r202/g__Eubacterium_H.xlsx
+++ b/outputs-GTDB-r202/g__Eubacterium_H.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>s__Eubacterium_H sp002368795</t>
+          <t>s__Eubacterium_H sp002368795(reject)</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>s__Eubacterium_H sp900317175</t>
+          <t>s__Eubacterium_H sp900317175(reject)</t>
         </is>
       </c>
     </row>
